--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2361,9 +2361,6 @@
     <t>../Calibration_example/lib</t>
   </si>
   <si>
-    <t>SEB4 baseboard PSO 2013</t>
-  </si>
-  <si>
     <t>vini</t>
   </si>
   <si>
@@ -2533,6 +2530,9 @@
   </si>
   <si>
     <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>SEB4 baseboard SingleRun 2013</t>
   </si>
 </sst>
 </file>
@@ -6852,8 +6852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6911,7 +6911,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6993,7 +6993,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>773</v>
+        <v>830</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -7061,7 +7061,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7087,7 +7087,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B22" s="29">
         <v>94</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B24" s="29">
         <v>3000</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B25" s="29">
         <v>0.9</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B26" s="28">
         <v>1</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B27" s="28">
         <v>1</v>
@@ -7145,27 +7145,27 @@
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>777</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>778</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>808</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>809</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>15</v>
@@ -7175,17 +7175,17 @@
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>774</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>775</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B32" s="28">
         <v>0.01</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B33" s="28">
         <v>0.01</v>
@@ -7205,10 +7205,10 @@
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>812</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>813</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="2"/>
@@ -7481,13 +7481,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>782</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>783</v>
-      </c>
       <c r="D4" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>66</v>
@@ -7500,17 +7500,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>784</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>785</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7519,7 +7519,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7529,7 +7529,7 @@
         <v>718</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7538,17 +7538,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>788</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>789</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7557,10 +7557,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>791</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
@@ -7576,17 +7576,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>793</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>794</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7633,17 +7633,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>796</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>797</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7652,17 +7652,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>799</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>800</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7671,13 +7671,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>66</v>
@@ -7690,17 +7690,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>784</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>785</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7709,7 +7709,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7719,7 +7719,7 @@
         <v>718</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7728,17 +7728,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>788</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>789</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7747,10 +7747,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>791</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>792</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
@@ -7766,17 +7766,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>793</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>794</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7823,17 +7823,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>796</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>797</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7842,13 +7842,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7929,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7984,7 +7984,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8429,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8652,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8893,7 +8893,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9175,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9395,7 +9395,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9532,7 +9532,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9574,7 +9574,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9616,7 +9616,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9690,7 +9690,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9732,7 +9732,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9774,7 +9774,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9832,7 +9832,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9873,7 +9873,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10312,7 +10312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
@@ -11073,7 +11073,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -11102,7 +11102,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11131,7 +11131,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11159,7 +11159,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11187,7 +11187,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11215,7 +11215,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11243,7 +11243,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11271,7 +11271,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11299,7 +11299,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11322,7 +11322,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11345,7 +11345,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11367,7 +11367,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="782">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2335,12 +2194,6 @@
   </si>
   <si>
     <t>Short display names are used for plots and exported to metadata</t>
-  </si>
-  <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
   </si>
   <si>
     <t>default</t>
@@ -4574,7 +4427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4636,7 +4489,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6889,7 +6741,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6900,7 +6752,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>768</v>
+        <v>719</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6911,7 +6763,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>815</v>
+        <v>766</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6922,7 +6774,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6935,11 +6787,11 @@
       <c r="B7" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
@@ -6954,11 +6806,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6974,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6993,7 +6845,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>830</v>
+        <v>781</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -7004,10 +6856,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>769</v>
+        <v>720</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -7015,10 +6867,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7061,7 +6913,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>816</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7087,13 +6939,13 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>805</v>
+        <v>756</v>
       </c>
       <c r="B22" s="29">
         <v>94</v>
       </c>
       <c r="C22" s="29"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
@@ -7103,114 +6955,114 @@
         <v>7</v>
       </c>
       <c r="C23" s="29"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="B24" s="29">
         <v>3000</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="B25" s="29">
         <v>0.9</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>779</v>
+        <v>730</v>
       </c>
       <c r="B26" s="28">
         <v>1</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="B27" s="28">
         <v>1</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>776</v>
+        <v>727</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>807</v>
+        <v>758</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>808</v>
+        <v>759</v>
       </c>
       <c r="C29" s="29"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="29"/>
-      <c r="D30" s="34"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="B32" s="28">
         <v>0.01</v>
       </c>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
       <c r="B33" s="28">
         <v>0.01</v>
       </c>
-      <c r="C33" s="33"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>811</v>
+        <v>762</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="C34" s="33"/>
+        <v>763</v>
+      </c>
+      <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7218,7 +7070,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>30</v>
@@ -7231,7 +7083,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7245,7 +7097,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>447</v>
@@ -7256,10 +7108,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>771</v>
+        <v>722</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7271,7 +7123,7 @@
         <v>33</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="13" t="s">
@@ -7280,13 +7132,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7317,7 +7169,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -7354,7 +7206,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7366,21 +7218,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7395,7 +7247,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7415,8 +7267,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>762</v>
+      <c r="F3" s="60" t="s">
+        <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7476,41 +7328,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>781</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F5" s="62"/>
+        <v>735</v>
+      </c>
+      <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>785</v>
+        <v>736</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7519,17 +7371,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7538,17 +7390,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="F7" s="62"/>
+        <v>739</v>
+      </c>
+      <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7557,17 +7409,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>790</v>
+        <v>741</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="F8" s="62"/>
+        <v>742</v>
+      </c>
+      <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7576,17 +7428,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F9" s="62"/>
+        <v>744</v>
+      </c>
+      <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7595,17 +7447,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="61"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7614,17 +7466,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="61"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7633,17 +7485,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>795</v>
+        <v>746</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="F12" s="62"/>
+        <v>747</v>
+      </c>
+      <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>797</v>
+      <c r="I12" s="46" t="s">
+        <v>748</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7652,55 +7504,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>799</v>
-      </c>
-      <c r="F13" s="62"/>
+        <v>750</v>
+      </c>
+      <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>797</v>
+      <c r="I13" s="46" t="s">
+        <v>748</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>800</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>733</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F15" s="62"/>
+        <v>735</v>
+      </c>
+      <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>801</v>
+        <v>752</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7709,17 +7561,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>786</v>
+        <v>737</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="62"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7728,17 +7580,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="F17" s="62"/>
+        <v>739</v>
+      </c>
+      <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7747,17 +7599,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>790</v>
+        <v>741</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>791</v>
-      </c>
-      <c r="F18" s="62"/>
+        <v>742</v>
+      </c>
+      <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7766,17 +7618,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F19" s="62"/>
+        <v>744</v>
+      </c>
+      <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>803</v>
+        <v>754</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7785,17 +7637,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="62"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="61"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7804,17 +7656,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="62"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="61"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7823,53 +7675,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>795</v>
+        <v>746</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>796</v>
-      </c>
-      <c r="F22" s="62"/>
+        <v>747</v>
+      </c>
+      <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>804</v>
+      <c r="I22" s="46" t="s">
+        <v>755</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>813</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>817</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>817</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>764</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>768</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>768</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7883,7 +7735,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7895,41 +7747,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>814</v>
+      <c r="R26" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7937,12 +7789,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="62"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="61"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7950,41 +7802,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>814</v>
+      <c r="R28" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7992,12 +7844,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="61"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -8010,12 +7862,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="63"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -8033,7 +7885,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -8051,7 +7903,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -8069,7 +7921,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="63"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -8078,20 +7930,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8107,7 +7959,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8123,45 +7975,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="39" t="s">
-        <v>814</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8170,13 +8022,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8189,7 +8041,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8203,7 +8055,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8216,7 +8068,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8230,7 +8082,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8243,7 +8095,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8257,7 +8109,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="63"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8270,7 +8122,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8284,7 +8136,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="63"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8297,7 +8149,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8311,7 +8163,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="63"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8324,7 +8176,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8338,7 +8190,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="63"/>
+      <c r="F43" s="62"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8351,22 +8203,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8380,7 +8232,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="63"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8391,45 +8243,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>814</v>
+      <c r="R46" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8437,17 +8289,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="63"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8458,17 +8310,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="62"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8479,17 +8331,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="62"/>
+      <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8500,12 +8352,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="62"/>
+      <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8518,17 +8370,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="62"/>
+      <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8539,17 +8391,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="62"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8560,36 +8412,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="63"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8603,56 +8455,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="63"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>814</v>
+      <c r="R56" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8678,7 +8530,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8688,7 +8540,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8699,7 +8551,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8709,7 +8561,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8720,7 +8572,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8730,7 +8582,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8741,12 +8593,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="63"/>
+      <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8759,17 +8611,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="63"/>
+      <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8780,17 +8632,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="63"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8801,36 +8653,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8839,61 +8691,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="63"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>814</v>
+      <c r="R67" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8906,7 +8758,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="63"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8919,17 +8771,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="63"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8940,17 +8792,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="63"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8961,17 +8813,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="63"/>
+      <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8982,12 +8834,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="63"/>
+      <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -9000,17 +8852,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="63"/>
+      <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -9021,17 +8873,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="63"/>
+      <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -9042,36 +8894,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="63"/>
+      <c r="F75" s="62"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9085,97 +8937,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="63"/>
+      <c r="F77" s="62"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
+      <c r="R78" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-20</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>814</v>
+      <c r="R79" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9188,7 +9040,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="63"/>
+      <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9201,17 +9053,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="63"/>
+      <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9222,17 +9074,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="63"/>
+      <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9243,17 +9095,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="63"/>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9264,12 +9116,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="62"/>
+      <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9282,17 +9134,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="62"/>
+      <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9303,17 +9155,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="62"/>
+      <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9324,119 +9176,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="62"/>
+      <c r="F87" s="61"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
+      <c r="R89" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-5</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.4833333333333334</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>814</v>
+      <c r="R90" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9444,12 +9296,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9463,481 +9315,481 @@
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>814</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>3</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>814</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>814</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>765</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>3</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>814</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>814</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>757</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F101" s="61"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
+      <c r="R101" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>10</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>814</v>
+      <c r="R102" s="38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="61"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10310,11 +10162,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10334,7 +10186,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10352,11 +10204,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>763</v>
+      <c r="B2" s="63" t="s">
+        <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10390,11 +10242,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>764</v>
+      <c r="B3" s="63" t="s">
+        <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10422,18 +10274,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10456,16 +10308,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>775</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10486,19 +10337,15 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>769</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
@@ -10512,27 +10359,24 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>766</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>776</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
@@ -10544,23 +10388,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>770</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10572,63 +10416,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>778</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10636,27 +10478,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>771</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10664,27 +10506,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>772</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10692,21 +10534,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>690</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>779</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10714,27 +10554,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>691</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10742,28 +10577,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10771,28 +10600,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>693</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10800,619 +10621,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>818</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>825</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>819</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>826</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>827</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>737</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>828</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>738</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>822</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11489,69 +10792,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20170,7 +19410,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2349,43 +2349,43 @@
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>SEB4 baseboard SingleRun 2013</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6704,7 +6704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -6845,7 +6845,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -10164,9 +10164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10313,7 +10313,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10342,7 +10342,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10371,7 +10371,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10399,7 +10399,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10427,7 +10427,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10455,7 +10455,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10483,7 +10483,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10511,7 +10511,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10539,7 +10539,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10562,7 +10562,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10585,7 +10585,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="769">
   <si>
     <t>type</t>
   </si>
@@ -2214,30 +2214,6 @@
     <t>../Calibration_example/lib</t>
   </si>
   <si>
-    <t>vini</t>
-  </si>
-  <si>
-    <t>lhs2011</t>
-  </si>
-  <si>
-    <t>xini</t>
-  </si>
-  <si>
-    <t>boundary</t>
-  </si>
-  <si>
-    <t>reflecting</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
     <t>AddMonthlyJSONUtilityDataElectric</t>
   </si>
   <si>
@@ -2310,30 +2286,6 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>npart</t>
-  </si>
-  <si>
-    <t>maxfn</t>
-  </si>
-  <si>
-    <t>topology</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>abstol</t>
-  </si>
-  <si>
-    <t>reltol</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>spso2011</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
@@ -2386,6 +2338,15 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -4427,7 +4388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4551,6 +4512,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6704,8 +6666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6763,7 +6725,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6845,7 +6807,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6913,7 +6875,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6939,129 +6901,75 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="B22" s="29">
-        <v>94</v>
+        <v>766</v>
+      </c>
+      <c r="B22" s="28">
+        <v>1E+20</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>554</v>
-      </c>
-      <c r="B23" s="29">
-        <v>7</v>
-      </c>
-      <c r="C23" s="29"/>
+        <v>767</v>
+      </c>
+      <c r="B23" s="28">
+        <v>0</v>
+      </c>
+      <c r="C23" s="65" t="s">
+        <v>768</v>
+      </c>
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>757</v>
-      </c>
-      <c r="B24" s="29">
-        <v>3000</v>
-      </c>
+      <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>731</v>
-      </c>
-      <c r="B25" s="29">
-        <v>0.9</v>
-      </c>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>730</v>
-      </c>
-      <c r="B26" s="28">
-        <v>1</v>
-      </c>
+      <c r="B26" s="28"/>
       <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="B27" s="28">
-        <v>1</v>
-      </c>
+      <c r="B27" s="28"/>
       <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>728</v>
-      </c>
+      <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>759</v>
-      </c>
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>725</v>
-      </c>
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>760</v>
-      </c>
-      <c r="B32" s="28">
-        <v>0.01</v>
-      </c>
+      <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="B33" s="28">
-        <v>0.01</v>
-      </c>
+      <c r="B33" s="28"/>
       <c r="C33" s="32"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>762</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>763</v>
-      </c>
+      <c r="B34" s="28"/>
       <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
@@ -7333,13 +7241,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>66</v>
@@ -7352,17 +7260,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F5" s="61"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7371,7 +7279,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7381,7 +7289,7 @@
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7390,17 +7298,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7409,10 +7317,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F8" s="61"/>
       <c r="G8" s="30" t="s">
@@ -7428,17 +7336,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F9" s="61"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7485,17 +7393,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7504,17 +7412,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7523,13 +7431,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>66</v>
@@ -7542,17 +7450,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F15" s="61"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7561,7 +7469,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7571,7 +7479,7 @@
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7580,17 +7488,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7599,10 +7507,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="F18" s="61"/>
       <c r="G18" s="30" t="s">
@@ -7618,17 +7526,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="F19" s="61"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7675,17 +7583,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7694,13 +7602,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>231</v>
@@ -7781,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7836,7 +7744,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8013,7 +7921,7 @@
       </c>
       <c r="Q36" s="53"/>
       <c r="R36" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8281,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8504,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8745,7 +8653,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8986,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9027,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9247,7 +9155,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9288,7 +9196,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9384,7 +9292,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9426,7 +9334,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="38"/>
       <c r="R94" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9468,7 +9376,7 @@
       <c r="P95" s="40"/>
       <c r="Q95" s="40"/>
       <c r="R95" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9542,7 +9450,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9584,7 +9492,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="38"/>
       <c r="R98" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9626,7 +9534,7 @@
       <c r="P99" s="40"/>
       <c r="Q99" s="40"/>
       <c r="R99" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9684,7 +9592,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9725,7 +9633,7 @@
         <v>10</v>
       </c>
       <c r="R102" s="38" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10164,7 +10072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
@@ -10313,7 +10221,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10342,7 +10250,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10371,7 +10279,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10399,7 +10307,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10427,7 +10335,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10455,7 +10363,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10483,7 +10391,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10511,7 +10419,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10539,7 +10447,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10562,7 +10470,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10585,7 +10493,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10607,7 +10515,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -4509,10 +4509,10 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6667,7 +6667,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6904,7 +6904,7 @@
         <v>766</v>
       </c>
       <c r="B22" s="28">
-        <v>1E+20</v>
+        <v>1E+18</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="33"/>
@@ -6916,7 +6916,7 @@
       <c r="B23" s="28">
         <v>0</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>768</v>
       </c>
       <c r="D23" s="33"/>
@@ -7133,14 +7133,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -6667,7 +6667,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6913,7 +6913,7 @@
       <c r="A23" s="30" t="s">
         <v>767</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="29">
         <v>0</v>
       </c>
       <c r="C23" s="64" t="s">

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6666,7 +6666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -7074,11 +7074,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7597,167 +7597,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>748</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>752</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>752</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="B23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <v>100</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="R25" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40">
-        <v>15</v>
-      </c>
-      <c r="N26" s="40">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="56">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="38" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="56">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7770,10 +7769,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -7788,10 +7787,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -7806,123 +7805,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="50">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="52">
+        <v>40</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="52">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="52">
-        <v>40</v>
-      </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
-        <v>749</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -7930,11 +7938,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -7958,14 +7966,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -7985,18 +7993,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8012,18 +8020,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8039,18 +8047,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8066,18 +8074,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8086,123 +8094,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="B43" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="40">
+        <v>80</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+      <c r="N45" s="40">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="40">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="R45" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="40">
-        <v>80</v>
-      </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="40">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8218,17 +8220,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8239,19 +8241,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8260,17 +8259,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8278,141 +8280,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="40">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="40">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="40">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38" t="s">
+      <c r="R55" s="38" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8420,16 +8419,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8438,10 +8440,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8459,40 +8461,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8501,17 +8500,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8519,20 +8521,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8540,120 +8542,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="38">
+      <c r="I66" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J66" s="41"/>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M66" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="40">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O66" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
+      <c r="R66" s="38" t="s">
         <v>749</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8661,16 +8660,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8679,10 +8681,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8700,17 +8702,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8721,19 +8723,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8742,17 +8741,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8760,20 +8762,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8781,79 +8783,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="40">
+        <v>14</v>
+      </c>
+      <c r="M77" s="40">
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="38" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8861,10 +8883,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="38" t="s">
@@ -8881,14 +8903,14 @@
         <v>-20</v>
       </c>
       <c r="L78" s="40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="O78" s="40">
         <v>1</v>
@@ -8897,45 +8919,22 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
-        <v>-20</v>
-      </c>
-      <c r="L79" s="40">
-        <v>30</v>
-      </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
-        <f>(L79-K79)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="O79" s="40">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38" t="s">
-        <v>749</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8943,16 +8942,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8961,10 +8963,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -8982,40 +8984,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9024,17 +9023,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9042,20 +9044,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9063,58 +9065,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>2</v>
+      </c>
+      <c r="M88" s="40">
+        <v>0</v>
+      </c>
+      <c r="N88" s="40">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>66</v>
+      <c r="R88" s="38" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9122,10 +9144,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="38" t="s">
@@ -9139,17 +9161,17 @@
       </c>
       <c r="J89" s="41"/>
       <c r="K89" s="40">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="L89" s="40">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="40">
         <v>0</v>
       </c>
       <c r="N89" s="40">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.4833333333333334</v>
       </c>
       <c r="O89" s="40">
         <v>1</v>
@@ -9158,111 +9180,113 @@
         <v>749</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="C92" s="48"/>
+      <c r="D92" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
-        <v>-5</v>
-      </c>
-      <c r="L90" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f>(L90-K90)/6</f>
-        <v>1.4833333333333334</v>
-      </c>
-      <c r="O90" s="40">
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="J92" s="48"/>
+      <c r="K92" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="48">
+        <v>4</v>
+      </c>
+      <c r="M92" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="38">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="48"/>
       <c r="D93" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="48" t="s">
@@ -9274,16 +9298,15 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
-        <f>1.5/6</f>
+      <c r="N93" s="48">
         <v>0.25</v>
       </c>
       <c r="O93" s="48">
@@ -9302,10 +9325,10 @@
       </c>
       <c r="C94" s="48"/>
       <c r="D94" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="48" t="s">
@@ -9317,7 +9340,7 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="48">
         <v>3</v>
@@ -9325,102 +9348,103 @@
       <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="40">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="40">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H96" s="48"/>
+      <c r="I96" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J96" s="48"/>
+      <c r="K96" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
+      <c r="L96" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="40">
+      <c r="M96" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N96" s="38">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O96" s="48">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48" t="s">
@@ -9435,13 +9459,12 @@
         <v>0.5</v>
       </c>
       <c r="L97" s="48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
-        <f>1.5/6</f>
+      <c r="N97" s="48">
         <v>0.25</v>
       </c>
       <c r="O97" s="48">
@@ -9460,10 +9483,10 @@
       </c>
       <c r="C98" s="48"/>
       <c r="D98" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48" t="s">
@@ -9478,186 +9501,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="40">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="40">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="54">
+        <v>1</v>
+      </c>
+      <c r="J100" s="57"/>
+      <c r="K100" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="56">
+        <v>1</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="56">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="D101" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
-        <v>1</v>
-      </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="48">
-        <v>3</v>
-      </c>
-      <c r="M99" s="40">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
-        <v>1</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="56">
-        <v>1</v>
-      </c>
-      <c r="M101" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="56">
+      <c r="I101" s="38">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40">
+        <v>0</v>
+      </c>
+      <c r="L101" s="40">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="40">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="56">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="40">
+        <v>10</v>
       </c>
       <c r="R101" s="38" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="38">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="40">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="40">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="40">
-        <v>10</v>
-      </c>
-      <c r="R102" s="38" t="s">
-        <v>749</v>
-      </c>
+    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9697,7 +9682,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10049,12 +10033,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_SingleRun_2013.xlsx
+++ b/projects/SEB_calibration_SingleRun_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2292,9 +2292,6 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>single_run</t>
   </si>
   <si>
@@ -2347,6 +2344,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6666,21 +6666,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6689,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6720,18 +6720,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6802,18 +6802,18 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6870,19 +6870,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6899,9 +6899,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B22" s="28">
         <v>1E+18</v>
@@ -6909,71 +6909,71 @@
       <c r="C22" s="29"/>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0</v>
+      </c>
+      <c r="C23" s="64" t="s">
         <v>767</v>
       </c>
-      <c r="B23" s="29">
-        <v>0</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>768</v>
-      </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="B26" s="28"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="B27" s="28"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="B33" s="28"/>
       <c r="C33" s="32"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="30" customFormat="1">
       <c r="B34" s="28"/>
       <c r="C34" s="32"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -6986,7 +6986,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A38" s="11" t="s">
         <v>29</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="30" customFormat="1">
       <c r="A39" s="30" t="s">
         <v>31</v>
       </c>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A41" s="11" t="s">
         <v>34</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="30" t="s">
         <v>632</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="30" customFormat="1">
       <c r="B43" s="25"/>
       <c r="D43" s="2"/>
     </row>
@@ -7063,7 +7063,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7076,37 +7075,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7142,7 +7141,7 @@
       <c r="Y1" s="65"/>
       <c r="Z1" s="65"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7159,7 +7158,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
@@ -7255,7 +7254,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7274,7 +7273,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7293,7 +7292,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7312,7 +7311,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7331,7 +7330,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7350,7 +7349,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7369,7 +7368,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7388,7 +7387,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7407,7 +7406,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7426,7 +7425,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
@@ -7445,7 +7444,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7464,7 +7463,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7483,7 +7482,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7502,7 +7501,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7521,7 +7520,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7540,7 +7539,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7559,7 +7558,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7578,7 +7577,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7597,7 +7596,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="43" customFormat="1">
       <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7636,7 +7635,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7691,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="54" customFormat="1">
       <c r="B27" s="54" t="s">
         <v>21</v>
       </c>
@@ -7728,7 +7727,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7819,7 +7818,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="44" customFormat="1">
       <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7866,7 +7865,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B35" s="50" t="s">
         <v>21</v>
       </c>
@@ -7905,7 +7904,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -7932,7 +7931,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -7959,7 +7958,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -7986,7 +7985,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8013,7 +8012,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8040,7 +8039,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8067,7 +8066,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8094,7 +8093,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="44" customFormat="1">
       <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
@@ -8111,7 +8110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
@@ -8173,7 +8172,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8215,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8236,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8317,7 +8316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44" t="b">
         <v>1</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
@@ -8396,7 +8395,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8414,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8456,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44" t="b">
         <v>1</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8596,7 +8595,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B66" s="38" t="s">
         <v>22</v>
       </c>
@@ -8637,7 +8636,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8676,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8697,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="44" t="b">
         <v>1</v>
       </c>
@@ -8816,7 +8815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B77" s="38" t="s">
         <v>22</v>
       </c>
@@ -8878,7 +8877,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -8937,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -8958,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9060,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="44" customFormat="1">
       <c r="A87" s="44" t="b">
         <v>1</v>
       </c>
@@ -9098,7 +9097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B88" s="38" t="s">
         <v>22</v>
       </c>
@@ -9139,7 +9138,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
@@ -9180,7 +9179,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9203,7 +9202,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="47" t="b">
         <v>1</v>
       </c>
@@ -9233,7 +9232,7 @@
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="38"/>
       <c r="B92" s="48" t="s">
         <v>22</v>
@@ -9276,7 +9275,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
@@ -9318,7 +9317,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="48" t="s">
         <v>22</v>
@@ -9361,7 +9360,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="47" t="b">
         <v>1</v>
       </c>
@@ -9391,7 +9390,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" s="48" t="s">
         <v>22</v>
@@ -9434,7 +9433,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
@@ -9476,7 +9475,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="48" t="s">
         <v>22</v>
@@ -9518,7 +9517,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="44" t="b">
         <v>1</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="54" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9576,7 +9575,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="35" customFormat="1">
       <c r="A102" s="35" t="b">
         <v>1</v>
       </c>
@@ -9625,10 +9624,10 @@
         <v>748</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -9636,400 +9635,400 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10039,7 +10038,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10054,25 +10052,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10088,7 +10086,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="30">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10126,7 +10124,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="75">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10165,7 +10163,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10194,14 +10192,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10223,14 +10221,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10252,14 +10250,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10280,14 +10278,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10308,14 +10306,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10336,14 +10334,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10364,14 +10362,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10392,14 +10390,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10420,14 +10418,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10443,14 +10441,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10466,14 +10464,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10489,13 +10487,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10510,180 +10508,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10700,19 +10697,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10731,7 +10728,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10752,7 +10749,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10775,7 +10772,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10798,7 +10795,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10821,7 +10818,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10844,7 +10841,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10867,7 +10864,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10890,7 +10887,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10913,7 +10910,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10936,7 +10933,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10955,7 +10952,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10976,7 +10973,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10999,7 +10996,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11022,7 +11019,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11045,7 +11042,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11068,7 +11065,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11091,7 +11088,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11114,7 +11111,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11137,7 +11134,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11160,7 +11157,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11179,7 +11176,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11202,7 +11199,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11225,7 +11222,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11248,7 +11245,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11271,7 +11268,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11294,7 +11291,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11317,7 +11314,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11340,7 +11337,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11363,7 +11360,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11386,7 +11383,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11405,7 +11402,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11426,7 +11423,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11449,7 +11446,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11472,7 +11469,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11495,7 +11492,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11518,7 +11515,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11541,7 +11538,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11564,7 +11561,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11587,7 +11584,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11610,7 +11607,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11629,7 +11626,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11650,7 +11647,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11673,7 +11670,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11696,7 +11693,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11719,7 +11716,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11742,7 +11739,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11765,7 +11762,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11788,7 +11785,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11811,7 +11808,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11834,7 +11831,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11853,7 +11850,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11874,7 +11871,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11897,7 +11894,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11920,7 +11917,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11943,7 +11940,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11966,7 +11963,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11989,7 +11986,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12012,7 +12009,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12035,7 +12032,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12058,7 +12055,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12077,7 +12074,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12098,7 +12095,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12123,7 +12120,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12146,7 +12143,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12169,7 +12166,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12192,7 +12189,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12215,7 +12212,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12238,7 +12235,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12261,7 +12258,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12284,7 +12281,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12307,7 +12304,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12326,7 +12323,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12347,7 +12344,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12370,7 +12367,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12392,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12415,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12441,7 +12438,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12464,7 +12461,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12487,7 +12484,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12510,7 +12507,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12533,7 +12530,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12556,7 +12553,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12579,7 +12576,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12602,7 +12599,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12625,7 +12622,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12644,7 +12641,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12667,7 +12664,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12690,7 +12687,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12713,7 +12710,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12736,7 +12733,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12759,7 +12756,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12782,7 +12779,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12805,7 +12802,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12828,7 +12825,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12851,7 +12848,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12874,7 +12871,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12893,7 +12890,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12918,7 +12915,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12937,7 +12934,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12958,7 +12955,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12983,7 +12980,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13002,7 +12999,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13025,7 +13022,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13050,7 +13047,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13073,7 +13070,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13094,7 +13091,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13113,7 +13110,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13138,7 +13135,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13161,7 +13158,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13184,7 +13181,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13207,7 +13204,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13230,7 +13227,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13253,7 +13250,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13276,7 +13273,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13295,7 +13292,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13318,7 +13315,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13341,7 +13338,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13364,7 +13361,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13383,7 +13380,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13406,7 +13403,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13429,7 +13426,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13452,7 +13449,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13475,7 +13472,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13498,7 +13495,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13521,7 +13518,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13540,7 +13537,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13565,7 +13562,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13588,7 +13585,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13611,7 +13608,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13634,7 +13631,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13657,7 +13654,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13680,7 +13677,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13703,7 +13700,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13726,7 +13723,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13749,7 +13746,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13768,7 +13765,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13793,7 +13790,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13814,7 +13811,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13837,7 +13834,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13860,7 +13857,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13883,7 +13880,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13906,7 +13903,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13929,7 +13926,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13952,7 +13949,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13975,7 +13972,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13998,7 +13995,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14021,7 +14018,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14044,7 +14041,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14067,7 +14064,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14090,7 +14087,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14109,7 +14106,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14129,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14151,7 +14148,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14174,7 +14171,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14197,7 +14194,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14216,7 +14213,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14238,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14264,7 +14261,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14287,7 +14284,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14310,7 +14307,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14333,7 +14330,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14356,7 +14353,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14379,7 +14376,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14402,7 +14399,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14425,7 +14422,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14448,7 +14445,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14467,7 +14464,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14492,7 +14489,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14515,7 +14512,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14538,7 +14535,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14561,7 +14558,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14584,7 +14581,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14607,7 +14604,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14630,7 +14627,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14653,7 +14650,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14676,7 +14673,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14699,7 +14696,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14718,7 +14715,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14741,7 +14738,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14764,7 +14761,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14787,7 +14784,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14810,7 +14807,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14829,7 +14826,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14852,7 +14849,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14875,7 +14872,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14898,7 +14895,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14918,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14940,7 +14937,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14961,7 +14958,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14984,7 +14981,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15003,7 +15000,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15026,7 +15023,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15051,7 +15048,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15072,7 +15069,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15097,7 +15094,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15122,7 +15119,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15141,7 +15138,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15166,7 +15163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15189,7 +15186,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15212,7 +15209,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15235,7 +15232,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15258,7 +15255,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15281,7 +15278,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15304,7 +15301,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15327,7 +15324,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15350,7 +15347,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15369,7 +15366,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15394,7 +15391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15417,7 +15414,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15440,7 +15437,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15463,7 +15460,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15486,7 +15483,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15509,7 +15506,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15532,7 +15529,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15555,7 +15552,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15578,7 +15575,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15597,7 +15594,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15618,7 +15615,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15641,7 +15638,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15664,7 +15661,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15687,7 +15684,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15710,7 +15707,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15733,7 +15730,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15756,7 +15753,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15779,7 +15776,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15802,7 +15799,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15825,7 +15822,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15848,7 +15845,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15871,7 +15868,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15894,7 +15891,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15917,7 +15914,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15940,7 +15937,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15963,7 +15960,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15982,7 +15979,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16003,7 +16000,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16026,7 +16023,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16049,7 +16046,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16072,7 +16069,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16095,7 +16092,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16118,7 +16115,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16141,7 +16138,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16164,7 +16161,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16187,7 +16184,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16210,7 +16207,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16233,7 +16230,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16256,7 +16253,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16279,7 +16276,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16302,7 +16299,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16325,7 +16322,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16348,7 +16345,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16367,7 +16364,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16392,7 +16389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16415,7 +16412,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16438,7 +16435,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16461,7 +16458,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16484,7 +16481,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16503,7 +16500,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16528,7 +16525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16551,7 +16548,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16570,7 +16567,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16589,7 +16586,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16608,7 +16605,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16629,7 +16626,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16652,7 +16649,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16675,7 +16672,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16698,7 +16695,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16721,7 +16718,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16744,7 +16741,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16767,7 +16764,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16790,7 +16787,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16813,7 +16810,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16836,7 +16833,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16859,7 +16856,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16878,7 +16875,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16901,7 +16898,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16920,7 +16917,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16945,7 +16942,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16968,7 +16965,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16991,7 +16988,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17014,7 +17011,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17037,7 +17034,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17060,7 +17057,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17083,7 +17080,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17106,7 +17103,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17129,7 +17126,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17152,7 +17149,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17175,7 +17172,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17194,7 +17191,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17217,7 +17214,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17236,7 +17233,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17257,7 +17254,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17276,7 +17273,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17297,7 +17294,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17316,7 +17313,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17337,7 +17334,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17356,7 +17353,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17379,7 +17376,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17398,7 +17395,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17423,7 +17420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17446,7 +17443,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17469,7 +17466,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17492,7 +17489,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17515,7 +17512,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17538,7 +17535,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17561,7 +17558,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17584,7 +17581,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17607,7 +17604,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17626,7 +17623,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17649,7 +17646,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17672,7 +17669,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17695,7 +17692,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17718,7 +17715,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17737,7 +17734,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17760,7 +17757,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17783,7 +17780,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17808,7 +17805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17827,7 +17824,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17852,7 +17849,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17875,7 +17872,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17894,7 +17891,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17915,7 +17912,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17936,7 +17933,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17959,7 +17956,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17978,7 +17975,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17997,7 +17994,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18022,7 +18019,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18047,7 +18044,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18061,7 +18058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18084,7 +18081,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18104,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18124,7 +18121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18144,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18161,7 +18158,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18184,7 +18181,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18207,7 +18204,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18221,7 +18218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18244,7 +18241,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18267,7 +18264,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18287,7 +18284,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18307,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18324,7 +18321,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18350,7 +18347,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18379,7 +18376,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18418,7 +18415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18432,7 +18429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18452,7 +18449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18466,7 +18463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18486,7 +18483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18506,7 +18503,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18526,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18546,7 +18543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18566,7 +18563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18586,7 +18583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18606,7 +18603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18626,7 +18623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18646,7 +18643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18660,7 +18657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18680,7 +18677,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18700,7 +18697,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18716,7 +18713,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18742,7 +18739,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18783,7 +18780,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18797,7 +18794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18817,7 +18814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18831,7 +18828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18853,7 +18850,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18870,17 +18866,17 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18891,7 +18887,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18905,7 +18901,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -18919,7 +18915,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -18933,7 +18929,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -18947,7 +18943,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -18961,7 +18957,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -18975,7 +18971,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -18989,7 +18985,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19003,7 +18999,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19017,7 +19013,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19031,7 +19027,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19042,8 +19038,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19069,7 +19065,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19110,7 +19106,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19151,7 +19147,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19183,7 +19179,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19215,7 +19211,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19244,7 +19240,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19276,7 +19272,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19296,7 +19292,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19319,7 +19315,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19330,7 +19326,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19338,7 +19334,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19351,7 +19347,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
